--- a/examples/xero/daily.xlsx
+++ b/examples/xero/daily.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orozcoj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orozcoj/workspace-personal/correct-hours/examples/xero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADF438E-D4FE-0342-8468-4669D57831D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7178B4AF-74B8-B34E-AF27-681FD942873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="116">
   <si>
     <t>Timesheet Details</t>
   </si>
@@ -41,12 +41,6 @@
     <t>From 1 August 2022 to 31 August 2022</t>
   </si>
   <si>
-    <t>Southern Rata Pty Ltd T/A Utilities Traffic Management</t>
-  </si>
-  <si>
-    <t>Abiei Mabiei</t>
-  </si>
-  <si>
     <t>Traffic Controller</t>
   </si>
   <si>
@@ -62,288 +56,27 @@
     <t>Day Ordinary TC 1.5x</t>
   </si>
   <si>
-    <t>Adele Peeler</t>
-  </si>
-  <si>
-    <t>Aleesha Clark</t>
-  </si>
-  <si>
     <t>Day Ordinary TC 2x</t>
   </si>
   <si>
-    <t>Anh Luong</t>
-  </si>
-  <si>
-    <t>Blake Russell</t>
-  </si>
-  <si>
-    <t>Bonita Dos Santos</t>
-  </si>
-  <si>
-    <t>Breannin Elvey</t>
-  </si>
-  <si>
     <t>Day Ordinary Team Leader</t>
   </si>
   <si>
     <t>Day Ordinary TL 1.5x</t>
   </si>
   <si>
-    <t>Bree Hope</t>
-  </si>
-  <si>
-    <t>Brendan Wilson</t>
-  </si>
-  <si>
-    <t>Caitlyn Marmo</t>
-  </si>
-  <si>
-    <t>Caitlyn Mitchell</t>
-  </si>
-  <si>
-    <t>Calum Boyd</t>
-  </si>
-  <si>
-    <t>Cameron Jones</t>
-  </si>
-  <si>
-    <t>Cameron Lithgow</t>
-  </si>
-  <si>
-    <t>Camilo Araya</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Charlotte Cafarella</t>
-  </si>
-  <si>
-    <t>Chloe-Rose Harb</t>
-  </si>
-  <si>
-    <t>Codie Kelly</t>
-  </si>
-  <si>
-    <t>Connor Bell</t>
-  </si>
-  <si>
-    <t>Cooper Cox</t>
-  </si>
-  <si>
-    <t>Damian Gallina</t>
-  </si>
-  <si>
-    <t>Daniela Krstevski</t>
-  </si>
-  <si>
-    <t>Danielle Middleton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darren Bingham </t>
-  </si>
-  <si>
-    <t>Diaz Hope</t>
-  </si>
-  <si>
-    <t>Domenico Fontana</t>
-  </si>
-  <si>
     <t>Day Ordinary TL 2x</t>
   </si>
   <si>
     <t>Night Overtime TL 2x</t>
   </si>
   <si>
-    <t>Elina Kaulina</t>
-  </si>
-  <si>
-    <t>Ellena Hope</t>
-  </si>
-  <si>
     <t>Night Overtime TC 2x</t>
   </si>
   <si>
-    <t>Elvezio Gallina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emily Nyenbrink </t>
-  </si>
-  <si>
-    <t>Emma Boyle</t>
-  </si>
-  <si>
-    <t>Fay Hady</t>
-  </si>
-  <si>
-    <t>Finlay Hoare</t>
-  </si>
-  <si>
-    <t>Franco Umurua</t>
-  </si>
-  <si>
-    <t>George Margiolis</t>
-  </si>
-  <si>
-    <t>Gregory Dingfelder</t>
-  </si>
-  <si>
-    <t>Ho Ming Wong</t>
-  </si>
-  <si>
-    <t>Jack Cripps</t>
-  </si>
-  <si>
-    <t>Jack Fulton</t>
-  </si>
-  <si>
-    <t>James Leonardos</t>
-  </si>
-  <si>
-    <t>Jammie Hope Jnr</t>
-  </si>
-  <si>
-    <t>Jeffrey Hocking</t>
-  </si>
-  <si>
-    <t>Joanne Russell</t>
-  </si>
-  <si>
-    <t>Jordan Grant</t>
-  </si>
-  <si>
-    <t>Jordan Hope</t>
-  </si>
-  <si>
-    <t>Joshua Toseski</t>
-  </si>
-  <si>
-    <t>Kaelen Benincasa</t>
-  </si>
-  <si>
-    <t>Kayla Dowell</t>
-  </si>
-  <si>
-    <t>Keera Shelley</t>
-  </si>
-  <si>
-    <t>Khada Warsame</t>
-  </si>
-  <si>
-    <t>Klaus Behari</t>
-  </si>
-  <si>
-    <t>Komi Akuatse</t>
-  </si>
-  <si>
-    <t>Korkes Yousif</t>
-  </si>
-  <si>
-    <t>Kyle Cardona</t>
-  </si>
-  <si>
-    <t>Leah Holland</t>
-  </si>
-  <si>
-    <t>Leigh Fields</t>
-  </si>
-  <si>
-    <t>Leonard Georgopoulos</t>
-  </si>
-  <si>
-    <t>Liliu Koko</t>
-  </si>
-  <si>
-    <t>Linda Green</t>
-  </si>
-  <si>
-    <t>Lucy Anderson</t>
-  </si>
-  <si>
-    <t>Luis Mousinho</t>
-  </si>
-  <si>
-    <t>Marianne Tschirsce</t>
-  </si>
-  <si>
-    <t>Melissa Andrews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milad Ablahad </t>
-  </si>
-  <si>
-    <t>Morgan Flinn</t>
-  </si>
-  <si>
-    <t>Nafisa Maalin</t>
-  </si>
-  <si>
-    <t>Nastassia Farrell</t>
-  </si>
-  <si>
-    <t>Natalie Nolder</t>
-  </si>
-  <si>
-    <t>Nicholas Gabriele</t>
-  </si>
-  <si>
-    <t>Nuha Darboe</t>
-  </si>
-  <si>
-    <t>Pasquale Scutella</t>
-  </si>
-  <si>
-    <t>Pasqualino Anastasio</t>
-  </si>
-  <si>
-    <t>Payton Tucker</t>
-  </si>
-  <si>
-    <t>Renee Finai</t>
-  </si>
-  <si>
-    <t>Rita Toma</t>
-  </si>
-  <si>
-    <t>Sara Harb</t>
-  </si>
-  <si>
-    <t>Saxon Towerzey</t>
-  </si>
-  <si>
-    <t>Shelley Peters</t>
-  </si>
-  <si>
-    <t>Silvana Papasergi</t>
-  </si>
-  <si>
-    <t>Steven Cusworth</t>
-  </si>
-  <si>
-    <t>Steven Elsdon</t>
-  </si>
-  <si>
-    <t>Suryansh Tyagi</t>
-  </si>
-  <si>
-    <t>Tevita Hope</t>
-  </si>
-  <si>
-    <t>Thadeus Meixner</t>
-  </si>
-  <si>
-    <t>Vince Corrone</t>
-  </si>
-  <si>
-    <t>Ya Zhi Wang</t>
-  </si>
-  <si>
-    <t>Younis Egeh</t>
-  </si>
-  <si>
-    <t>Zac Czyzewski</t>
-  </si>
-  <si>
     <t>Week Ending</t>
   </si>
   <si>
@@ -384,6 +117,270 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Ashleigh Whitfield</t>
+  </si>
+  <si>
+    <t>Fahmida Bowden</t>
+  </si>
+  <si>
+    <t>Otis Hulme</t>
+  </si>
+  <si>
+    <t>Abiha Chan</t>
+  </si>
+  <si>
+    <t>Eren Schaefer</t>
+  </si>
+  <si>
+    <t>Kelly Neal</t>
+  </si>
+  <si>
+    <t>Agnes Mora</t>
+  </si>
+  <si>
+    <t>Brendan Cope</t>
+  </si>
+  <si>
+    <t>Aamir Gray</t>
+  </si>
+  <si>
+    <t>Nana Bull</t>
+  </si>
+  <si>
+    <t>Shona Terrell</t>
+  </si>
+  <si>
+    <t>Sierra Flowers</t>
+  </si>
+  <si>
+    <t>Janet Taylor</t>
+  </si>
+  <si>
+    <t>Hawa Kirkpatrick</t>
+  </si>
+  <si>
+    <t>Abbigail Rosario</t>
+  </si>
+  <si>
+    <t>Aamina Conner</t>
+  </si>
+  <si>
+    <t>Safiyyah Potts</t>
+  </si>
+  <si>
+    <t>Sean Mclellan</t>
+  </si>
+  <si>
+    <t>Carlos Gaines</t>
+  </si>
+  <si>
+    <t>Anne William</t>
+  </si>
+  <si>
+    <t>Asha Forrest</t>
+  </si>
+  <si>
+    <t>Harlee Hail</t>
+  </si>
+  <si>
+    <t>Elora Riddle</t>
+  </si>
+  <si>
+    <t>Jordanne Davis</t>
+  </si>
+  <si>
+    <t>Selena Monaghan</t>
+  </si>
+  <si>
+    <t>Nella Huynh</t>
+  </si>
+  <si>
+    <t>Demi-Lee Mckay</t>
+  </si>
+  <si>
+    <t>Nazia Craig</t>
+  </si>
+  <si>
+    <t>Mayson Deleon</t>
+  </si>
+  <si>
+    <t>Eileen Mcdaniel</t>
+  </si>
+  <si>
+    <t>Giulia Dolan</t>
+  </si>
+  <si>
+    <t>Charlene Finney</t>
+  </si>
+  <si>
+    <t>Arman Mclaughlin</t>
+  </si>
+  <si>
+    <t>Farhaan Mcknight</t>
+  </si>
+  <si>
+    <t>Kimora Metcalfe</t>
+  </si>
+  <si>
+    <t>Edna Valdez</t>
+  </si>
+  <si>
+    <t>Keeleigh Holding</t>
+  </si>
+  <si>
+    <t>Liberty Marin</t>
+  </si>
+  <si>
+    <t>Keyaan Chambers</t>
+  </si>
+  <si>
+    <t>Freja Jacobs</t>
+  </si>
+  <si>
+    <t>Hebe Rowland</t>
+  </si>
+  <si>
+    <t>Shahid Wilkins</t>
+  </si>
+  <si>
+    <t>Menachem Shea</t>
+  </si>
+  <si>
+    <t>Kamil Joseph</t>
+  </si>
+  <si>
+    <t>Karis Atherton</t>
+  </si>
+  <si>
+    <t>Lily-Rose Vinson</t>
+  </si>
+  <si>
+    <t>Dolcie Mcfadden</t>
+  </si>
+  <si>
+    <t>Tilly-Mae Xiong</t>
+  </si>
+  <si>
+    <t>Bilal Lindsay</t>
+  </si>
+  <si>
+    <t>Sherry Coffey</t>
+  </si>
+  <si>
+    <t>Madelaine Mckeown</t>
+  </si>
+  <si>
+    <t>Ameerah Williamson</t>
+  </si>
+  <si>
+    <t>Sakina Britt</t>
+  </si>
+  <si>
+    <t>Meg Carver</t>
+  </si>
+  <si>
+    <t>Muhammed Preece</t>
+  </si>
+  <si>
+    <t>Elias Redmond</t>
+  </si>
+  <si>
+    <t>Evelyn Rowe</t>
+  </si>
+  <si>
+    <t>Sofia Villegas</t>
+  </si>
+  <si>
+    <t>Emanuel Fitzgerald</t>
+  </si>
+  <si>
+    <t>Taha Cantrell</t>
+  </si>
+  <si>
+    <t>Patsy Markham</t>
+  </si>
+  <si>
+    <t>Salma Wilde</t>
+  </si>
+  <si>
+    <t>Sabina Silva</t>
+  </si>
+  <si>
+    <t>Tamanna Brock</t>
+  </si>
+  <si>
+    <t>Ellesse Nichols</t>
+  </si>
+  <si>
+    <t>Kaylum Kline</t>
+  </si>
+  <si>
+    <t>Freya Currie</t>
+  </si>
+  <si>
+    <t>Dan Richards</t>
+  </si>
+  <si>
+    <t>Zayd Dickson</t>
+  </si>
+  <si>
+    <t>Caitlyn Mathis</t>
+  </si>
+  <si>
+    <t>Afsana Gordon</t>
+  </si>
+  <si>
+    <t>Baran Mack</t>
+  </si>
+  <si>
+    <t>Larry Santiago</t>
+  </si>
+  <si>
+    <t>Jadine Cullen</t>
+  </si>
+  <si>
+    <t>Lorelai Todd</t>
+  </si>
+  <si>
+    <t>Leona Bowler</t>
+  </si>
+  <si>
+    <t>Libbie Peralta</t>
+  </si>
+  <si>
+    <t>Avery Salter</t>
+  </si>
+  <si>
+    <t>Vikki Halliday</t>
+  </si>
+  <si>
+    <t>Rumaysa Peck</t>
+  </si>
+  <si>
+    <t>Tyson Byrd</t>
+  </si>
+  <si>
+    <t>Teegan Hulme</t>
+  </si>
+  <si>
+    <t>Jamie Mcfarland</t>
+  </si>
+  <si>
+    <t>Rohaan Joyce</t>
+  </si>
+  <si>
+    <t>Saara Solis</t>
+  </si>
+  <si>
+    <t>Adelina Key</t>
+  </si>
+  <si>
+    <t>Katharine Price</t>
+  </si>
+  <si>
+    <t>ABC Company</t>
   </si>
 </sst>
 </file>
@@ -443,15 +440,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -796,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -819,118 +816,118 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="A3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>116</v>
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>44780</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -958,23 +955,23 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>44780</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1002,23 +999,23 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>44780</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>6.25</v>
@@ -1046,23 +1043,23 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>44780</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1090,23 +1087,23 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>44780</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1134,67 +1131,67 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>44780</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>44780</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1222,23 +1219,23 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>44780</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -1266,23 +1263,23 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>44780</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>0.67</v>
@@ -1310,23 +1307,23 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>44780</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1354,23 +1351,23 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>44780</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>4.75</v>
@@ -1398,23 +1395,23 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>44780</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1442,23 +1439,23 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>44780</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1486,23 +1483,23 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>44780</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1530,23 +1527,23 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>44780</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>8</v>
@@ -1574,23 +1571,23 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>44780</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1618,23 +1615,23 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>44780</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>7.08</v>
@@ -1662,23 +1659,23 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>44780</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1706,67 +1703,67 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>44780</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
-        <v>44780</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1794,23 +1791,23 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>44780</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1838,23 +1835,23 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>44780</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1882,23 +1879,23 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>44780</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1926,23 +1923,23 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>44780</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1970,23 +1967,23 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>44780</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2014,23 +2011,23 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>44780</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2058,23 +2055,23 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="A32" s="1">
         <v>44780</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -2102,23 +2099,23 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>44780</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -2146,23 +2143,23 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>44780</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G34">
         <v>0.5</v>
@@ -2190,23 +2187,23 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>44780</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G35">
         <v>8</v>
@@ -2234,23 +2231,23 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="A36" s="1">
         <v>44780</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>1.5</v>
@@ -2278,23 +2275,23 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>44780</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2322,23 +2319,23 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="A38" s="1">
         <v>44780</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2366,23 +2363,23 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="A39" s="1">
         <v>44780</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2410,67 +2407,67 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="A40" s="1">
         <v>44780</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
         <v>7</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
-        <v>44780</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2498,23 +2495,23 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="A42" s="1">
         <v>44780</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2542,23 +2539,23 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="A43" s="1">
         <v>44780</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -2586,23 +2583,23 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="A44" s="1">
         <v>44780</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G44">
         <v>7.75</v>
@@ -2630,23 +2627,23 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="A45" s="1">
         <v>44780</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2674,23 +2671,23 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="A46" s="1">
         <v>44780</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G46">
         <v>8</v>
@@ -2718,23 +2715,23 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="A47" s="1">
         <v>44780</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <v>1.75</v>
@@ -2762,23 +2759,23 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="A48" s="1">
         <v>44780</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2806,23 +2803,23 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="A49" s="1">
         <v>44780</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -2850,23 +2847,23 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="A50" s="1">
         <v>44780</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -2894,23 +2891,23 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="A51" s="1">
         <v>44780</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G51">
         <v>2.25</v>
@@ -2938,23 +2935,23 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="A52" s="1">
         <v>44780</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -2982,23 +2979,23 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="A53" s="1">
         <v>44780</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -3026,23 +3023,23 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="A54" s="1">
         <v>44780</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G54">
         <v>2.75</v>
@@ -3070,23 +3067,23 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="A55" s="1">
         <v>44780</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3114,23 +3111,23 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="A56" s="1">
         <v>44780</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3158,23 +3155,23 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="A57" s="1">
         <v>44780</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G57">
         <v>8</v>
@@ -3202,23 +3199,23 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="A58" s="1">
         <v>44780</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -3246,23 +3243,23 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="A59" s="1">
         <v>44780</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G59">
         <v>8</v>
@@ -3290,67 +3287,67 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="A60" s="1">
         <v>44780</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
         <v>7</v>
       </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>2</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
-        <v>44780</v>
-      </c>
-      <c r="B61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G61">
         <v>2.75</v>
@@ -3378,23 +3375,23 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="A62" s="1">
         <v>44780</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G62">
         <v>6.92</v>
@@ -3422,23 +3419,23 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="A63" s="1">
         <v>44780</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3466,23 +3463,23 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="A64" s="1">
         <v>44780</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G64">
         <v>7.5</v>
@@ -3510,23 +3507,23 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="A65" s="1">
         <v>44780</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -3554,23 +3551,23 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="A66" s="1">
         <v>44780</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G66">
         <v>2.5</v>
@@ -3598,23 +3595,23 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="A67" s="1">
         <v>44780</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -3642,23 +3639,23 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="A68" s="1">
         <v>44780</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G68">
         <v>8</v>
@@ -3686,23 +3683,23 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="A69" s="1">
         <v>44780</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3730,23 +3727,23 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="A70" s="1">
         <v>44780</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3774,23 +3771,23 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="A71" s="1">
         <v>44780</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3818,23 +3815,23 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="A72" s="1">
         <v>44780</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3862,23 +3859,23 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4">
+      <c r="A73" s="1">
         <v>44780</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3906,23 +3903,23 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+      <c r="A74" s="1">
         <v>44780</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G74">
         <v>8</v>
@@ -3950,23 +3947,23 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
+      <c r="A75" s="1">
         <v>44780</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G75">
         <v>1.75</v>
@@ -3994,23 +3991,23 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
+      <c r="A76" s="1">
         <v>44780</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4038,23 +4035,23 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4">
+      <c r="A77" s="1">
         <v>44780</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -4082,23 +4079,23 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+      <c r="A78" s="1">
         <v>44780</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4126,23 +4123,23 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="4">
+      <c r="A79" s="1">
         <v>44780</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4170,23 +4167,23 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="4">
+      <c r="A80" s="1">
         <v>44780</v>
       </c>
       <c r="B80" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -4214,23 +4211,23 @@
       </c>
     </row>
     <row r="81" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="4">
+      <c r="A81" s="1">
         <v>44780</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C81" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4258,23 +4255,23 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="4">
+      <c r="A82" s="1">
         <v>44780</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G82">
         <v>8</v>
@@ -4302,23 +4299,23 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="4">
+      <c r="A83" s="1">
         <v>44780</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G83">
         <v>1.75</v>
@@ -4346,23 +4343,23 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="4">
+      <c r="A84" s="1">
         <v>44780</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4390,23 +4387,23 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="4">
+      <c r="A85" s="1">
         <v>44780</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G85">
         <v>7.5</v>
@@ -4434,23 +4431,23 @@
       </c>
     </row>
     <row r="86" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="4">
+      <c r="A86" s="1">
         <v>44780</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -4478,23 +4475,23 @@
       </c>
     </row>
     <row r="87" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="4">
+      <c r="A87" s="1">
         <v>44780</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G87">
         <v>8</v>
@@ -4522,23 +4519,23 @@
       </c>
     </row>
     <row r="88" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="4">
+      <c r="A88" s="1">
         <v>44780</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -4566,23 +4563,23 @@
       </c>
     </row>
     <row r="89" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="4">
+      <c r="A89" s="1">
         <v>44780</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G89">
         <v>2.25</v>
@@ -4610,23 +4607,23 @@
       </c>
     </row>
     <row r="90" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="4">
+      <c r="A90" s="1">
         <v>44780</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G90">
         <v>8</v>
@@ -4654,23 +4651,23 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="4">
+      <c r="A91" s="1">
         <v>44780</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G91">
         <v>1.75</v>
@@ -4698,23 +4695,23 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="4">
+      <c r="A92" s="1">
         <v>44780</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4742,23 +4739,23 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="4">
+      <c r="A93" s="1">
         <v>44780</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4786,67 +4783,67 @@
       </c>
     </row>
     <row r="94" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="4">
+      <c r="A94" s="1">
         <v>44780</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
         <v>7</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>2</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="4">
-        <v>44780</v>
-      </c>
-      <c r="B95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" t="s">
-        <v>11</v>
-      </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4874,23 +4871,23 @@
       </c>
     </row>
     <row r="96" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="4">
+      <c r="A96" s="1">
         <v>44780</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G96">
         <v>8</v>
@@ -4918,23 +4915,23 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="4">
+      <c r="A97" s="1">
         <v>44780</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G97">
         <v>0.17</v>
@@ -4962,23 +4959,23 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="4">
+      <c r="A98" s="1">
         <v>44780</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -5006,23 +5003,23 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="4">
+      <c r="A99" s="1">
         <v>44780</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G99">
         <v>8</v>
@@ -5050,23 +5047,23 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="4">
+      <c r="A100" s="1">
         <v>44780</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G100">
         <v>1.75</v>
@@ -5094,23 +5091,23 @@
       </c>
     </row>
     <row r="101" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="4">
+      <c r="A101" s="1">
         <v>44780</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5138,23 +5135,23 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="4">
+      <c r="A102" s="1">
         <v>44780</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C102" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -5182,23 +5179,23 @@
       </c>
     </row>
     <row r="103" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="4">
+      <c r="A103" s="1">
         <v>44780</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C103" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -5226,23 +5223,23 @@
       </c>
     </row>
     <row r="104" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="4">
+      <c r="A104" s="1">
         <v>44780</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C104" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G104">
         <v>7.75</v>
@@ -5270,23 +5267,23 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="4">
+      <c r="A105" s="1">
         <v>44780</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5314,23 +5311,23 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="4">
+      <c r="A106" s="1">
         <v>44780</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5358,23 +5355,23 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="4">
+      <c r="A107" s="1">
         <v>44780</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C107" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G107">
         <v>7.25</v>
@@ -5402,23 +5399,23 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="4">
+      <c r="A108" s="1">
         <v>44780</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G108">
         <v>7.75</v>
@@ -5446,23 +5443,23 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="4">
+      <c r="A109" s="1">
         <v>44780</v>
       </c>
       <c r="B109" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C109" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5490,23 +5487,23 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="4">
+      <c r="A110" s="1">
         <v>44780</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C110" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -5534,23 +5531,23 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="4">
+      <c r="A111" s="1">
         <v>44780</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C111" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -5578,23 +5575,23 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="4">
+      <c r="A112" s="1">
         <v>44780</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C112" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G112">
         <v>8</v>
@@ -5622,23 +5619,23 @@
       </c>
     </row>
     <row r="113" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="4">
+      <c r="A113" s="1">
         <v>44780</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C113" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -5666,23 +5663,23 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="4">
+      <c r="A114" s="1">
         <v>44780</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C114" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G114">
         <v>0.5</v>
@@ -5710,23 +5707,23 @@
       </c>
     </row>
     <row r="115" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="4">
+      <c r="A115" s="1">
         <v>44780</v>
       </c>
       <c r="B115" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C115" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5754,23 +5751,23 @@
       </c>
     </row>
     <row r="116" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="4">
+      <c r="A116" s="1">
         <v>44780</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C116" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G116">
         <v>8</v>
@@ -5798,23 +5795,23 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="4">
+      <c r="A117" s="1">
         <v>44780</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C117" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G117">
         <v>0.25</v>
@@ -5842,23 +5839,23 @@
       </c>
     </row>
     <row r="118" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="4">
+      <c r="A118" s="1">
         <v>44780</v>
       </c>
       <c r="B118" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C118" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -5886,23 +5883,23 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="4">
+      <c r="A119" s="1">
         <v>44780</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C119" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G119">
         <v>6.75</v>
@@ -5930,67 +5927,67 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="4">
+      <c r="A120" s="1">
         <v>44780</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C120" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>2</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B121" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
         <v>7</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>2</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="N120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="4">
-        <v>44780</v>
-      </c>
-      <c r="B121" t="s">
-        <v>61</v>
-      </c>
-      <c r="C121" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121" t="s">
-        <v>11</v>
-      </c>
       <c r="E121" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6018,23 +6015,23 @@
       </c>
     </row>
     <row r="122" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="4">
+      <c r="A122" s="1">
         <v>44780</v>
       </c>
       <c r="B122" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C122" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G122">
         <v>7.08</v>
@@ -6062,23 +6059,23 @@
       </c>
     </row>
     <row r="123" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="4">
+      <c r="A123" s="1">
         <v>44780</v>
       </c>
       <c r="B123" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C123" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E123" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6106,23 +6103,23 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="4">
+      <c r="A124" s="1">
         <v>44780</v>
       </c>
       <c r="B124" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C124" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6150,23 +6147,23 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="4">
+      <c r="A125" s="1">
         <v>44780</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C125" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E125" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6194,23 +6191,23 @@
       </c>
     </row>
     <row r="126" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="4">
+      <c r="A126" s="1">
         <v>44780</v>
       </c>
       <c r="B126" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C126" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6238,23 +6235,23 @@
       </c>
     </row>
     <row r="127" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="4">
+      <c r="A127" s="1">
         <v>44780</v>
       </c>
       <c r="B127" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C127" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -6282,23 +6279,23 @@
       </c>
     </row>
     <row r="128" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="4">
+      <c r="A128" s="1">
         <v>44780</v>
       </c>
       <c r="B128" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C128" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6326,23 +6323,23 @@
       </c>
     </row>
     <row r="129" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="4">
+      <c r="A129" s="1">
         <v>44780</v>
       </c>
       <c r="B129" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C129" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G129">
         <v>7.75</v>
@@ -6370,23 +6367,23 @@
       </c>
     </row>
     <row r="130" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="4">
+      <c r="A130" s="1">
         <v>44780</v>
       </c>
       <c r="B130" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C130" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E130" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -6414,23 +6411,23 @@
       </c>
     </row>
     <row r="131" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="4">
+      <c r="A131" s="1">
         <v>44780</v>
       </c>
       <c r="B131" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C131" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E131" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -6458,23 +6455,23 @@
       </c>
     </row>
     <row r="132" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="4">
+      <c r="A132" s="1">
         <v>44780</v>
       </c>
       <c r="B132" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C132" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G132">
         <v>8</v>
@@ -6502,23 +6499,23 @@
       </c>
     </row>
     <row r="133" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="4">
+      <c r="A133" s="1">
         <v>44780</v>
       </c>
       <c r="B133" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C133" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E133" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -6546,23 +6543,23 @@
       </c>
     </row>
     <row r="134" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="4">
+      <c r="A134" s="1">
         <v>44780</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C134" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G134">
         <v>8</v>
@@ -6590,23 +6587,23 @@
       </c>
     </row>
     <row r="135" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="4">
+      <c r="A135" s="1">
         <v>44780</v>
       </c>
       <c r="B135" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C135" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E135" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G135">
         <v>0.75</v>
@@ -6634,23 +6631,23 @@
       </c>
     </row>
     <row r="136" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="4">
+      <c r="A136" s="1">
         <v>44780</v>
       </c>
       <c r="B136" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C136" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -6678,23 +6675,23 @@
       </c>
     </row>
     <row r="137" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="4">
+      <c r="A137" s="1">
         <v>44780</v>
       </c>
       <c r="B137" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C137" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -6722,67 +6719,67 @@
       </c>
     </row>
     <row r="138" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="4">
+      <c r="A138" s="1">
         <v>44780</v>
       </c>
       <c r="B138" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C138" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E138" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B139" t="s">
+        <v>80</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
         <v>7</v>
       </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>2</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="4">
-        <v>44780</v>
-      </c>
-      <c r="B139" t="s">
-        <v>68</v>
-      </c>
-      <c r="C139" t="s">
-        <v>4</v>
-      </c>
-      <c r="D139" t="s">
-        <v>11</v>
-      </c>
       <c r="E139" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -6810,23 +6807,23 @@
       </c>
     </row>
     <row r="140" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="4">
+      <c r="A140" s="1">
         <v>44780</v>
       </c>
       <c r="B140" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C140" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -6854,23 +6851,23 @@
       </c>
     </row>
     <row r="141" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="4">
+      <c r="A141" s="1">
         <v>44780</v>
       </c>
       <c r="B141" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C141" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E141" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -6898,23 +6895,23 @@
       </c>
     </row>
     <row r="142" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="4">
+      <c r="A142" s="1">
         <v>44780</v>
       </c>
       <c r="B142" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C142" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -6942,23 +6939,23 @@
       </c>
     </row>
     <row r="143" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="4">
+      <c r="A143" s="1">
         <v>44780</v>
       </c>
       <c r="B143" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C143" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G143">
         <v>8</v>
@@ -6986,67 +6983,67 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="4">
+      <c r="A144" s="1">
         <v>44780</v>
       </c>
       <c r="B144" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C144" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F144" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B145" t="s">
+        <v>82</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
         <v>7</v>
       </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>2</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>2</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="4">
-        <v>44780</v>
-      </c>
-      <c r="B145" t="s">
-        <v>70</v>
-      </c>
-      <c r="C145" t="s">
-        <v>4</v>
-      </c>
-      <c r="D145" t="s">
-        <v>11</v>
-      </c>
       <c r="E145" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -7074,23 +7071,23 @@
       </c>
     </row>
     <row r="146" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="4">
+      <c r="A146" s="1">
         <v>44780</v>
       </c>
       <c r="B146" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C146" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7118,23 +7115,23 @@
       </c>
     </row>
     <row r="147" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="4">
+      <c r="A147" s="1">
         <v>44780</v>
       </c>
       <c r="B147" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C147" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E147" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G147">
         <v>8</v>
@@ -7162,23 +7159,23 @@
       </c>
     </row>
     <row r="148" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="4">
+      <c r="A148" s="1">
         <v>44780</v>
       </c>
       <c r="B148" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C148" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E148" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -7206,23 +7203,23 @@
       </c>
     </row>
     <row r="149" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="4">
+      <c r="A149" s="1">
         <v>44780</v>
       </c>
       <c r="B149" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C149" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G149">
         <v>8</v>
@@ -7250,23 +7247,23 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="4">
+      <c r="A150" s="1">
         <v>44780</v>
       </c>
       <c r="B150" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C150" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -7294,23 +7291,23 @@
       </c>
     </row>
     <row r="151" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="4">
+      <c r="A151" s="1">
         <v>44780</v>
       </c>
       <c r="B151" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C151" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -7338,23 +7335,23 @@
       </c>
     </row>
     <row r="152" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="4">
+      <c r="A152" s="1">
         <v>44780</v>
       </c>
       <c r="B152" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C152" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G152">
         <v>8</v>
@@ -7382,23 +7379,23 @@
       </c>
     </row>
     <row r="153" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="4">
+      <c r="A153" s="1">
         <v>44780</v>
       </c>
       <c r="B153" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C153" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E153" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G153">
         <v>1.5</v>
@@ -7426,23 +7423,23 @@
       </c>
     </row>
     <row r="154" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="4">
+      <c r="A154" s="1">
         <v>44780</v>
       </c>
       <c r="B154" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C154" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -7470,23 +7467,23 @@
       </c>
     </row>
     <row r="155" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="4">
+      <c r="A155" s="1">
         <v>44780</v>
       </c>
       <c r="B155" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C155" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E155" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G155">
         <v>7.75</v>
@@ -7514,23 +7511,23 @@
       </c>
     </row>
     <row r="156" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="4">
+      <c r="A156" s="1">
         <v>44780</v>
       </c>
       <c r="B156" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C156" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E156" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -7558,23 +7555,23 @@
       </c>
     </row>
     <row r="157" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="4">
+      <c r="A157" s="1">
         <v>44780</v>
       </c>
       <c r="B157" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C157" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -7602,23 +7599,23 @@
       </c>
     </row>
     <row r="158" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="4">
+      <c r="A158" s="1">
         <v>44780</v>
       </c>
       <c r="B158" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C158" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G158">
         <v>8</v>
@@ -7646,23 +7643,23 @@
       </c>
     </row>
     <row r="159" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="4">
+      <c r="A159" s="1">
         <v>44780</v>
       </c>
       <c r="B159" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C159" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E159" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G159">
         <v>0.5</v>
@@ -7690,23 +7687,23 @@
       </c>
     </row>
     <row r="160" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="4">
+      <c r="A160" s="1">
         <v>44780</v>
       </c>
       <c r="B160" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C160" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -7734,23 +7731,23 @@
       </c>
     </row>
     <row r="161" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="4">
+      <c r="A161" s="1">
         <v>44780</v>
       </c>
       <c r="B161" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C161" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G161">
         <v>0.5</v>
@@ -7778,23 +7775,23 @@
       </c>
     </row>
     <row r="162" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="4">
+      <c r="A162" s="1">
         <v>44780</v>
       </c>
       <c r="B162" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C162" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E162" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G162">
         <v>8</v>
@@ -7822,23 +7819,23 @@
       </c>
     </row>
     <row r="163" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="4">
+      <c r="A163" s="1">
         <v>44780</v>
       </c>
       <c r="B163" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C163" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E163" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -7866,23 +7863,23 @@
       </c>
     </row>
     <row r="164" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="4">
+      <c r="A164" s="1">
         <v>44780</v>
       </c>
       <c r="B164" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C164" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G164">
         <v>2.75</v>
@@ -7910,23 +7907,23 @@
       </c>
     </row>
     <row r="165" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="4">
+      <c r="A165" s="1">
         <v>44780</v>
       </c>
       <c r="B165" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C165" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -7954,23 +7951,23 @@
       </c>
     </row>
     <row r="166" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="4">
+      <c r="A166" s="1">
         <v>44780</v>
       </c>
       <c r="B166" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C166" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E166" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G166">
         <v>7.75</v>
@@ -7998,23 +7995,23 @@
       </c>
     </row>
     <row r="167" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="4">
+      <c r="A167" s="1">
         <v>44780</v>
       </c>
       <c r="B167" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C167" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E167" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -8042,23 +8039,23 @@
       </c>
     </row>
     <row r="168" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="4">
+      <c r="A168" s="1">
         <v>44780</v>
       </c>
       <c r="B168" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C168" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -8086,23 +8083,23 @@
       </c>
     </row>
     <row r="169" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="4">
+      <c r="A169" s="1">
         <v>44780</v>
       </c>
       <c r="B169" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C169" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G169">
         <v>8</v>
@@ -8130,23 +8127,23 @@
       </c>
     </row>
     <row r="170" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="4">
+      <c r="A170" s="1">
         <v>44780</v>
       </c>
       <c r="B170" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C170" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F170" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G170">
         <v>0.25</v>
@@ -8174,23 +8171,23 @@
       </c>
     </row>
     <row r="171" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="4">
+      <c r="A171" s="1">
         <v>44780</v>
       </c>
       <c r="B171" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C171" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -8218,23 +8215,23 @@
       </c>
     </row>
     <row r="172" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="4">
+      <c r="A172" s="1">
         <v>44780</v>
       </c>
       <c r="B172" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C172" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E172" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -8262,23 +8259,23 @@
       </c>
     </row>
     <row r="173" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="4">
+      <c r="A173" s="1">
         <v>44780</v>
       </c>
       <c r="B173" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C173" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -8306,67 +8303,67 @@
       </c>
     </row>
     <row r="174" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="4">
+      <c r="A174" s="1">
         <v>44780</v>
       </c>
       <c r="B174" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C174" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E174" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F174" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
         <v>7</v>
       </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>2</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-      <c r="M174">
-        <v>0</v>
-      </c>
-      <c r="N174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="4">
-        <v>44780</v>
-      </c>
-      <c r="B175" t="s">
-        <v>79</v>
-      </c>
-      <c r="C175" t="s">
-        <v>4</v>
-      </c>
-      <c r="D175" t="s">
-        <v>11</v>
-      </c>
       <c r="E175" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -8394,23 +8391,23 @@
       </c>
     </row>
     <row r="176" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="4">
+      <c r="A176" s="1">
         <v>44780</v>
       </c>
       <c r="B176" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C176" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -8438,23 +8435,23 @@
       </c>
     </row>
     <row r="177" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="4">
+      <c r="A177" s="1">
         <v>44780</v>
       </c>
       <c r="B177" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C177" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E177" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -8482,23 +8479,23 @@
       </c>
     </row>
     <row r="178" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="4">
+      <c r="A178" s="1">
         <v>44780</v>
       </c>
       <c r="B178" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C178" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -8526,23 +8523,23 @@
       </c>
     </row>
     <row r="179" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="4">
+      <c r="A179" s="1">
         <v>44780</v>
       </c>
       <c r="B179" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C179" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G179">
         <v>6.25</v>
@@ -8570,23 +8567,23 @@
       </c>
     </row>
     <row r="180" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="4">
+      <c r="A180" s="1">
         <v>44780</v>
       </c>
       <c r="B180" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C180" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -8614,23 +8611,23 @@
       </c>
     </row>
     <row r="181" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="4">
+      <c r="A181" s="1">
         <v>44780</v>
       </c>
       <c r="B181" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C181" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -8658,23 +8655,23 @@
       </c>
     </row>
     <row r="182" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="4">
+      <c r="A182" s="1">
         <v>44780</v>
       </c>
       <c r="B182" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C182" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E182" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G182">
         <v>7.75</v>
@@ -8702,23 +8699,23 @@
       </c>
     </row>
     <row r="183" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="4">
+      <c r="A183" s="1">
         <v>44780</v>
       </c>
       <c r="B183" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C183" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -8746,23 +8743,23 @@
       </c>
     </row>
     <row r="184" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="4">
+      <c r="A184" s="1">
         <v>44780</v>
       </c>
       <c r="B184" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C184" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F184" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -8790,23 +8787,23 @@
       </c>
     </row>
     <row r="185" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="4">
+      <c r="A185" s="1">
         <v>44780</v>
       </c>
       <c r="B185" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C185" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F185" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G185">
         <v>5.25</v>
@@ -8834,23 +8831,23 @@
       </c>
     </row>
     <row r="186" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="4">
+      <c r="A186" s="1">
         <v>44780</v>
       </c>
       <c r="B186" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C186" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E186" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G186">
         <v>8</v>
@@ -8878,23 +8875,23 @@
       </c>
     </row>
     <row r="187" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="4">
+      <c r="A187" s="1">
         <v>44780</v>
       </c>
       <c r="B187" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C187" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G187">
         <v>0.67</v>
@@ -8922,23 +8919,23 @@
       </c>
     </row>
     <row r="188" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="4">
+      <c r="A188" s="1">
         <v>44780</v>
       </c>
       <c r="B188" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C188" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -8966,23 +8963,23 @@
       </c>
     </row>
     <row r="189" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="4">
+      <c r="A189" s="1">
         <v>44780</v>
       </c>
       <c r="B189" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C189" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E189" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F189" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G189">
         <v>7.5</v>
@@ -9010,23 +9007,23 @@
       </c>
     </row>
     <row r="190" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="4">
+      <c r="A190" s="1">
         <v>44780</v>
       </c>
       <c r="B190" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C190" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E190" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -9054,23 +9051,23 @@
       </c>
     </row>
     <row r="191" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="4">
+      <c r="A191" s="1">
         <v>44780</v>
       </c>
       <c r="B191" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C191" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G191">
         <v>8</v>
@@ -9098,23 +9095,23 @@
       </c>
     </row>
     <row r="192" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="4">
+      <c r="A192" s="1">
         <v>44780</v>
       </c>
       <c r="B192" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C192" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F192" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G192">
         <v>1.75</v>
@@ -9142,23 +9139,23 @@
       </c>
     </row>
     <row r="193" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="4">
+      <c r="A193" s="1">
         <v>44780</v>
       </c>
       <c r="B193" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C193" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -9186,23 +9183,23 @@
       </c>
     </row>
     <row r="194" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="4">
+      <c r="A194" s="1">
         <v>44780</v>
       </c>
       <c r="B194" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C194" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F194" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G194">
         <v>8</v>
@@ -9230,23 +9227,23 @@
       </c>
     </row>
     <row r="195" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="4">
+      <c r="A195" s="1">
         <v>44780</v>
       </c>
       <c r="B195" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C195" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E195" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G195">
         <v>1.75</v>
@@ -9274,23 +9271,23 @@
       </c>
     </row>
     <row r="196" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="4">
+      <c r="A196" s="1">
         <v>44780</v>
       </c>
       <c r="B196" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C196" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F196" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -9318,23 +9315,23 @@
       </c>
     </row>
     <row r="197" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="4">
+      <c r="A197" s="1">
         <v>44780</v>
       </c>
       <c r="B197" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C197" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E197" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -9362,23 +9359,23 @@
       </c>
     </row>
     <row r="198" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="4">
+      <c r="A198" s="1">
         <v>44780</v>
       </c>
       <c r="B198" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C198" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F198" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G198">
         <v>8</v>
@@ -9406,23 +9403,23 @@
       </c>
     </row>
     <row r="199" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="4">
+      <c r="A199" s="1">
         <v>44780</v>
       </c>
       <c r="B199" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C199" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E199" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -9450,23 +9447,23 @@
       </c>
     </row>
     <row r="200" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="4">
+      <c r="A200" s="1">
         <v>44780</v>
       </c>
       <c r="B200" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C200" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E200" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G200">
         <v>7.75</v>
@@ -9494,23 +9491,23 @@
       </c>
     </row>
     <row r="201" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="4">
+      <c r="A201" s="1">
         <v>44780</v>
       </c>
       <c r="B201" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C201" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E201" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -9538,23 +9535,23 @@
       </c>
     </row>
     <row r="202" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="4">
+      <c r="A202" s="1">
         <v>44780</v>
       </c>
       <c r="B202" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C202" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D202" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -9582,23 +9579,23 @@
       </c>
     </row>
     <row r="203" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="4">
+      <c r="A203" s="1">
         <v>44780</v>
       </c>
       <c r="B203" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C203" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E203" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -9626,23 +9623,23 @@
       </c>
     </row>
     <row r="204" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="4">
+      <c r="A204" s="1">
         <v>44780</v>
       </c>
       <c r="B204" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C204" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D204" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E204" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G204">
         <v>7.75</v>
@@ -9670,23 +9667,23 @@
       </c>
     </row>
     <row r="205" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="4">
+      <c r="A205" s="1">
         <v>44780</v>
       </c>
       <c r="B205" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C205" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D205" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -9714,67 +9711,67 @@
       </c>
     </row>
     <row r="206" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="4">
+      <c r="A206" s="1">
         <v>44780</v>
       </c>
       <c r="B206" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C206" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D206" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E206" t="s">
+        <v>4</v>
+      </c>
+      <c r="F206" t="s">
+        <v>5</v>
+      </c>
+      <c r="G206">
+        <v>8</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B207" t="s">
+        <v>104</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
         <v>6</v>
       </c>
-      <c r="F206" t="s">
-        <v>7</v>
-      </c>
-      <c r="G206">
-        <v>8</v>
-      </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-      <c r="J206">
-        <v>0</v>
-      </c>
-      <c r="K206">
-        <v>0</v>
-      </c>
-      <c r="L206">
-        <v>0</v>
-      </c>
-      <c r="M206">
-        <v>0</v>
-      </c>
-      <c r="N206">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="4">
-        <v>44780</v>
-      </c>
-      <c r="B207" t="s">
-        <v>92</v>
-      </c>
-      <c r="C207" t="s">
-        <v>4</v>
-      </c>
-      <c r="D207" t="s">
-        <v>8</v>
-      </c>
       <c r="E207" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G207">
         <v>1.75</v>
@@ -9802,23 +9799,23 @@
       </c>
     </row>
     <row r="208" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="4">
+      <c r="A208" s="1">
         <v>44780</v>
       </c>
       <c r="B208" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C208" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E208" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G208">
         <v>7.75</v>
@@ -9846,23 +9843,23 @@
       </c>
     </row>
     <row r="209" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="4">
+      <c r="A209" s="1">
         <v>44780</v>
       </c>
       <c r="B209" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C209" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -9890,23 +9887,23 @@
       </c>
     </row>
     <row r="210" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="4">
+      <c r="A210" s="1">
         <v>44780</v>
       </c>
       <c r="B210" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C210" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -9934,23 +9931,23 @@
       </c>
     </row>
     <row r="211" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="4">
+      <c r="A211" s="1">
         <v>44780</v>
       </c>
       <c r="B211" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C211" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D211" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G211">
         <v>8</v>
@@ -9978,23 +9975,23 @@
       </c>
     </row>
     <row r="212" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="4">
+      <c r="A212" s="1">
         <v>44780</v>
       </c>
       <c r="B212" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C212" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E212" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G212">
         <v>0.67</v>
@@ -10022,23 +10019,23 @@
       </c>
     </row>
     <row r="213" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="4">
+      <c r="A213" s="1">
         <v>44780</v>
       </c>
       <c r="B213" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C213" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D213" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -10066,23 +10063,23 @@
       </c>
     </row>
     <row r="214" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="4">
+      <c r="A214" s="1">
         <v>44780</v>
       </c>
       <c r="B214" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C214" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D214" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G214">
         <v>8</v>
@@ -10110,23 +10107,23 @@
       </c>
     </row>
     <row r="215" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="4">
+      <c r="A215" s="1">
         <v>44780</v>
       </c>
       <c r="B215" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C215" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E215" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -10154,23 +10151,23 @@
       </c>
     </row>
     <row r="216" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="4">
+      <c r="A216" s="1">
         <v>44780</v>
       </c>
       <c r="B216" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C216" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E216" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G216">
         <v>2.5</v>
@@ -10198,23 +10195,23 @@
       </c>
     </row>
     <row r="217" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="4">
+      <c r="A217" s="1">
         <v>44780</v>
       </c>
       <c r="B217" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C217" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D217" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F217" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -10242,23 +10239,23 @@
       </c>
     </row>
     <row r="218" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="4">
+      <c r="A218" s="1">
         <v>44780</v>
       </c>
       <c r="B218" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C218" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E218" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -10286,23 +10283,23 @@
       </c>
     </row>
     <row r="219" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="4">
+      <c r="A219" s="1">
         <v>44780</v>
       </c>
       <c r="B219" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C219" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -10330,23 +10327,23 @@
       </c>
     </row>
     <row r="220" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="4">
+      <c r="A220" s="1">
         <v>44780</v>
       </c>
       <c r="B220" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C220" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E220" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -10374,23 +10371,23 @@
       </c>
     </row>
     <row r="221" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="4">
+      <c r="A221" s="1">
         <v>44780</v>
       </c>
       <c r="B221" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C221" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E221" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F221" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -10418,23 +10415,23 @@
       </c>
     </row>
     <row r="222" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="4">
+      <c r="A222" s="1">
         <v>44780</v>
       </c>
       <c r="B222" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C222" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E222" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -10462,23 +10459,23 @@
       </c>
     </row>
     <row r="223" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="4">
+      <c r="A223" s="1">
         <v>44780</v>
       </c>
       <c r="B223" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C223" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D223" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -10506,23 +10503,23 @@
       </c>
     </row>
     <row r="224" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="4">
+      <c r="A224" s="1">
         <v>44780</v>
       </c>
       <c r="B224" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C224" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E224" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -10550,23 +10547,23 @@
       </c>
     </row>
     <row r="225" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="4">
+      <c r="A225" s="1">
         <v>44780</v>
       </c>
       <c r="B225" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C225" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F225" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -10594,23 +10591,23 @@
       </c>
     </row>
     <row r="226" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="4">
+      <c r="A226" s="1">
         <v>44780</v>
       </c>
       <c r="B226" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C226" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E226" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F226" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -10638,23 +10635,23 @@
       </c>
     </row>
     <row r="227" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="4">
+      <c r="A227" s="1">
         <v>44780</v>
       </c>
       <c r="B227" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C227" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E227" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G227">
         <v>8</v>
@@ -10682,23 +10679,23 @@
       </c>
     </row>
     <row r="228" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="4">
+      <c r="A228" s="1">
         <v>44780</v>
       </c>
       <c r="B228" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C228" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E228" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G228">
         <v>1.75</v>
@@ -10726,23 +10723,23 @@
       </c>
     </row>
     <row r="229" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="4">
+      <c r="A229" s="1">
         <v>44780</v>
       </c>
       <c r="B229" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C229" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E229" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -10770,23 +10767,23 @@
       </c>
     </row>
     <row r="230" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="4">
+      <c r="A230" s="1">
         <v>44780</v>
       </c>
       <c r="B230" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C230" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E230" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G230">
         <v>8</v>
@@ -10814,23 +10811,23 @@
       </c>
     </row>
     <row r="231" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="4">
+      <c r="A231" s="1">
         <v>44780</v>
       </c>
       <c r="B231" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C231" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G231">
         <v>2</v>
@@ -10858,23 +10855,23 @@
       </c>
     </row>
     <row r="232" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="4">
+      <c r="A232" s="1">
         <v>44780</v>
       </c>
       <c r="B232" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C232" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E232" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -10902,23 +10899,23 @@
       </c>
     </row>
     <row r="233" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="4">
+      <c r="A233" s="1">
         <v>44780</v>
       </c>
       <c r="B233" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C233" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D233" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E233" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -10946,23 +10943,23 @@
       </c>
     </row>
     <row r="234" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="4">
+      <c r="A234" s="1">
         <v>44780</v>
       </c>
       <c r="B234" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C234" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E234" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -10990,23 +10987,23 @@
       </c>
     </row>
     <row r="235" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="4">
+      <c r="A235" s="1">
         <v>44780</v>
       </c>
       <c r="B235" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C235" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D235" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E235" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -11034,23 +11031,23 @@
       </c>
     </row>
     <row r="236" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="4">
+      <c r="A236" s="1">
         <v>44780</v>
       </c>
       <c r="B236" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C236" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E236" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G236">
         <v>8</v>
@@ -11078,23 +11075,23 @@
       </c>
     </row>
     <row r="237" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="4">
+      <c r="A237" s="1">
         <v>44780</v>
       </c>
       <c r="B237" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C237" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E237" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G237">
         <v>1.75</v>
@@ -11122,23 +11119,23 @@
       </c>
     </row>
     <row r="238" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="4">
+      <c r="A238" s="1">
         <v>44780</v>
       </c>
       <c r="B238" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C238" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E238" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G238">
         <v>0</v>
